--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>999</v>
+        <v>150</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>149</v>
+        <v>999</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>150</v>
+        <v>999</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>999</v>
+        <v>149</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Curepto</t>
+          <t>Embalse El Espinal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nuevosur S.A.</t>
+          <t>Agrícola Cerro Azul Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/01/2021</t>
+          <t>28/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149741000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155504113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Curepto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>Nuevosur S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>324020</v>
+        <v>1400</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>26/01/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149741000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,40 +520,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Embalse Domulgo</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Curepto</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4700</v>
+        <v>324020</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/06/2019</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143505613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>19/06/2019</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142938117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143505613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Embalse Domulgo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ilustre Municipalidad de Curepto</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>4700</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142938117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Producción de abono Orgánico La Trinchera</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Verde Corp SpA</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>750</v>
+        <v>6750</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129691247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Producción de abono Orgánico La Trinchera</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Verde Corp SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129691247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>706</v>
+        <v>1200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>200</v>
+        <v>706</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN, COMUNA DE CUREPTO . (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable de Huaquén</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>607</v>
+        <v>250</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN (e-seia)</t>
+          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN, COMUNA DE CUREPTO . (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>04/08/2008</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3009728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Comité de Agua Potable de Huaquén</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>234</v>
+        <v>618</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3009728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Gualleco (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/06/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382158&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tranque Estacional Tabunco, VII Región del Maule (e-seia)</t>
+          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1512</v>
+        <v>51</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>22/06/2004</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382158&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Tranque Estacional Tabunco, VII Región del Maule (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>150</v>
+        <v>1512</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/04/2002</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>999</v>
+        <v>150</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>149</v>
+        <v>999</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Agua Potable Rural Localidad de Constantué Comuna de Curepto Provincia de Talca Región del Maule</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>28/02/2001</t>
+          <t>08/04/2002</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Embalse Estacional Montehuira</t>
+          <t>Construcción de Sistema de Agua Potable Rural Localidad de Constantué Comuna de Curepto Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Montehuira Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/09/2000</t>
+          <t>28/02/2001</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,43 +2440,91 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Embalse Estacional Montehuira</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Sociedad Agrícola Montehuira Ltda.</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>260</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>15/09/2000</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3182&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Curepto</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Embalse Estacional Llaca-Llaca Sector El Rodeo</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Comunidad de Aguas Llaca-Llaca</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="F45" t="n">
         <v>380</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>19/05/1998</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=741&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Curepto</t>
         </is>

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>150</v>
+        <v>999</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>999</v>
+        <v>149</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>999</v>
+        <v>150</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>149</v>
+        <v>999</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/03/2022</t>
+          <t>14/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155504113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155643179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Curepto</t>
+          <t>Embalse El Espinal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nuevosur S.A.</t>
+          <t>Agrícola Cerro Azul Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26/01/2021</t>
+          <t>28/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149741000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155504113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,40 +520,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Curepto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>Nuevosur S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>324020</v>
+        <v>1400</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>26/01/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149741000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Embalse Domulgo</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Curepto</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4700</v>
+        <v>324020</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/06/2019</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143505613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>19/06/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142938117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143505613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Embalse Domulgo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ilustre Municipalidad de Curepto</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>4700</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142938117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Producción de abono Orgánico La Trinchera</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Verde Corp SpA</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>750</v>
+        <v>6750</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129691247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Producción de abono Orgánico La Trinchera</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Verde Corp SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129691247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>706</v>
+        <v>1200</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>706</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN, COMUNA DE CUREPTO . (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable de Huaquén</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>607</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN (e-seia)</t>
+          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN, COMUNA DE CUREPTO . (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1547,21 +1547,21 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>04/08/2008</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3009728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Comité de Agua Potable de Huaquén</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>234</v>
+        <v>618</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3009728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Gualleco (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,11 +2171,11 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/06/2004</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382158&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tranque Estacional Tabunco, VII Región del Maule (e-seia)</t>
+          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1512</v>
+        <v>51</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>22/06/2004</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382158&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Tranque Estacional Tabunco, VII Región del Maule (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>150</v>
+        <v>1512</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/04/2002</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>999</v>
+        <v>150</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>149</v>
+        <v>999</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Agua Potable Rural Localidad de Constantué Comuna de Curepto Provincia de Talca Región del Maule</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>28/02/2001</t>
+          <t>08/04/2002</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Embalse Estacional Montehuira</t>
+          <t>Construcción de Sistema de Agua Potable Rural Localidad de Constantué Comuna de Curepto Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Montehuira Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15/09/2000</t>
+          <t>28/02/2001</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,43 +2488,91 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Embalse Estacional Montehuira</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Sociedad Agrícola Montehuira Ltda.</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>260</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>15/09/2000</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3182&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Curepto</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Embalse Estacional Llaca-Llaca Sector El Rodeo</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Comunidad de Aguas Llaca-Llaca</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="F46" t="n">
         <v>380</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>19/05/1998</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=741&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Curepto</t>
         </is>

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/04/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>150</v>
+        <v>999</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>999</v>
+        <v>149</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>999</v>
+        <v>150</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>149</v>
+        <v>999</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>150</v>
+        <v>999</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>999</v>
+        <v>149</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/04/2022</t>
+          <t>31/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155643179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159742444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embalse El Espinal</t>
+          <t>Embalse Espinal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28/03/2022</t>
+          <t>31/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155504113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159740601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Curepto</t>
+          <t>Embalse El Espinal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nuevosur S.A.</t>
+          <t>Agrícola Cerro Azul Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/01/2021</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149741000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155643179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Embalse El Espinal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>Agrícola Cerro Azul Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>324020</v>
+        <v>1600</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>28/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155504113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Embalse Domulgo</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Curepto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Curepto</t>
+          <t>Nuevosur S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4700</v>
+        <v>1400</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/06/2019</t>
+          <t>26/01/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143505613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149741000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Embalse Domulgo</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Curepto</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4700</v>
+        <v>324020</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142938117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Embalse Domulgo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ilustre Municipalidad de Curepto</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>4700</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>19/06/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143505613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Embalse Domulgo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Ilustre Municipalidad de Curepto</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>4700</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142938117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Producción de abono Orgánico La Trinchera</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Verde Corp SpA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>750</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129691247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Planta Producción de abono Orgánico La Trinchera</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Verde Corp SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>706</v>
+        <v>750</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129691247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>706</v>
+        <v>1200</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>706</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>706</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,21 +1259,21 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN, COMUNA DE CUREPTO . (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable de Huaquén</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>607</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>04/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable de Huaquén</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>618</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3009728&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN, COMUNA DE CUREPTO . (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Comité de Agua Potable de Huaquén</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>234</v>
+        <v>607</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>04/08/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>MEJORAMIENTO SERVICIO DE AGUA POTABLE RURAL HUAQUEN (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Comité de Agua Potable de Huaquén</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>618</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3009728&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Gualleco (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/06/2004</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/06/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382158&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tranque Estacional Tabunco, VII Región del Maule (e-seia)</t>
+          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1512</v>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>23/06/2004</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=384396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Modificación del proyecto Construcción Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/04/2002</t>
+          <t>22/06/2004</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=382158&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Tranque Estacional Tabunco, VII Región del Maule (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>999</v>
+        <v>1512</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/04/2002</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=47403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Agua Potable Rural Localidad de Constantué Comuna de Curepto Provincia de Talca Región del Maule</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>220</v>
+        <v>999</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>28/02/2001</t>
+          <t>08/04/2002</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Embalse Estacional Montehuira</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Montehuira Ltda.</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15/09/2000</t>
+          <t>08/04/2002</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,43 +2536,139 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Construcción de Sistema de Agua Potable Rural Localidad de Constantué Comuna de Curepto Provincia de Talca Región del Maule</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>220</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>28/02/2001</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3651&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Curepto</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Embalse Estacional Montehuira</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Sociedad Agrícola Montehuira Ltda.</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>260</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>15/09/2000</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3182&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Curepto</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Embalse Estacional Llaca-Llaca Sector El Rodeo</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Comunidad de Aguas Llaca-Llaca</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="F48" t="n">
         <v>380</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>19/05/1998</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=741&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Curepto</t>
         </is>

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>150</v>
+        <v>999</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>999</v>
+        <v>149</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>999</v>
+        <v>150</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>149</v>
+        <v>999</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embalse El Espinal</t>
+          <t>Embalse Espinal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/07/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159742444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159740601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embalse Espinal</t>
+          <t>Embalse El Espinal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31/07/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159740601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159742444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embalse Espinal</t>
+          <t>Embalse El Espinal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159740601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159742444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embalse El Espinal</t>
+          <t>Embalse Espinal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159742444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159740601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Curepto.xlsx
+++ b/data/Curepto.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>999</v>
+        <v>150</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
+          <t>Construcción de Sistema de Tratamiento de Aguas Servidas de Curepto (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>149</v>
+        <v>999</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamfiento de Aguas Servidas de Gualleco</t>
+          <t>Construcción Sistema de Tratamfiento de Aguas Servidas Gualleco (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=14076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
